--- a/测试计划模板.xlsx
+++ b/测试计划模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" tabRatio="521" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" tabRatio="521" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="被测试功能1" sheetId="1" r:id="rId3"/>
     <sheet name="被测试功能2" sheetId="3" r:id="rId4"/>
     <sheet name="被测试功能3" sheetId="4" r:id="rId5"/>
+    <sheet name="被测功能4" sheetId="6" r:id="rId6"/>
+    <sheet name="被测功能5" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="132">
   <si>
     <t>预置条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Trivia_Online  Test Plan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,22 +58,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被测功能名1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被测功能名2</t>
-  </si>
-  <si>
-    <t>被测功能名3</t>
-  </si>
-  <si>
     <t>是否自动化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否自动化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
@@ -94,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发Trivia_Online测试计划初始版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>变更历史记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,21 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>XXX</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,15 +99,11 @@
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>注册弹框加载成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、点击用户名的文本框                 2、输入已注册的用户名：htx             3、点击密码文本框                     4、输入与用户名匹配的正确的密码123456h                            5、点击“登录”按钮</t>
@@ -471,11 +436,11 @@
   </si>
   <si>
     <t>“注册成功”提示框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“两次输入密码不一致”提示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：htxhtx                   3、点击密码文本框                     4、输入超过18位的密码：123456789h123456789                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456789h123456789                        7、点击“注册”按钮</t>
@@ -483,7 +448,7 @@
   </si>
   <si>
     <t>“密码不能超过18位”提示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：htxhtx                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
@@ -499,11 +464,11 @@
   </si>
   <si>
     <t>“密码不能低于6位”提示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“密码不能为空”提示框       “请输入密码”提示        “请再输入一遍密码”提示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：htxhtx                   3、点击“注册”按钮</t>
@@ -515,7 +480,7 @@
   </si>
   <si>
     <t>“密码包含特殊字符，请重新输入”提示框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、点击用户名的文本框                 2、输入未被注册过的不超过10位的合法用户名：htxhtx                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码中间嵌套空格：1 23456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：1 23456h                        7、点击“注册”按钮</t>
@@ -531,7 +496,7 @@
   </si>
   <si>
     <t>“该用户名已经存在”提示框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、点击用户名的文本框                 2、输入未被注册过的超过10位的合法用户名：htxhtxhtxhtx                   3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
@@ -539,19 +504,19 @@
   </si>
   <si>
     <t>“用户名不能超过10位”提示框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、点击“注册”按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“请输入用户名”提示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“该用户名已经存在”提示框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、点击用户名的文本框                 2、输入未注册过的只包含三个空格的用户名：                      3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
@@ -563,7 +528,7 @@
   </si>
   <si>
     <t>“用户名包含特殊字符不合法”提示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、点击用户名的文本框                 2、输入未注册过的小于6位的用户名+空格：hhh                       3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
@@ -582,7 +547,7 @@
       </rPr>
       <t>v2.0:“注册成功”提示框</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -604,7 +569,7 @@
       </rPr>
       <t>v2.0：空格被处理，“注册成功提示框”</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、点击用户名的文本框                 2、输入未注册过的小于6位的用户名中嵌套空格：zx zx                       3、点击密码文本框                     4、输入不少于6位不超过18位的合法密码：123456h                            5、点击“确认密码”文本框        6、输入和密码框里输入一样的密码：123456h                        7、点击“注册”按钮</t>
@@ -612,14 +577,195 @@
   </si>
   <si>
     <t>方案一：“用户名包含特殊字符”提示                      方案二：空格被处理，“注册成功提示框”                  方案三：保留空格，“注册成功”提示提示框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住登录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯峂欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善Timeline测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>Timeline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试计划初始版本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页面已正常加载出来，网页当前处于用户登录状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试在注册界面中用户能否正常注册，若不能正常完成注册，是否输出错误信息提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户能否正常注销当前登录账号并返回到指定页面，若不能，是否弹出提示框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出“确定要注销吗”询问框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1-A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在进行3-1-A后正常弹出“确定要注销吗”的询问框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、点击页面右上方所显示的现登录的用户名                         </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击“确定”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面返回主页面，且当前网页处于未登录状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击“取消”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面返回登录前页面，且当前网页仍处于登录状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1-B</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1-C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline  Test Plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1-A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭网页前处于登录状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重新进入网站                         </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仍处于登录状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试当用户再次打开网页时，是否仍保留退出前的登录状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭网页前处于未登录状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仍处于未登录状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1-B</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -638,11 +784,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -683,6 +824,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -710,7 +862,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -789,21 +941,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -918,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -939,13 +1076,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,97 +1087,98 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,7 +1486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1364,12 +1497,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="19" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="38.875" customWidth="1"/>
@@ -1377,76 +1510,84 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1"/>
     <row r="2" spans="1:4" ht="16.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A3" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" s="17" customFormat="1" ht="15" thickBot="1">
+      <c r="A3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" thickBot="1">
+      <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
-      <c r="A4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="26">
-        <v>42737</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>19</v>
+      <c r="B4" s="23">
+        <v>43454</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="23">
+        <v>43460</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
-      <c r="A6" s="24"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickTop="1"/>
   </sheetData>
@@ -1464,7 +1605,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1476,33 +1617,37 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1"/>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.4" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.4" customHeight="1" thickBot="1">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
@@ -1510,10 +1655,12 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
@@ -1521,35 +1668,67 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickTop="1"/>
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
@@ -1565,8 +1744,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1583,357 +1762,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="60">
-      <c r="A3" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>34</v>
+      <c r="A3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="36">
+      <c r="A4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="36">
+      <c r="A5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="48">
+      <c r="A6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="48">
+      <c r="A7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="48">
+      <c r="A8" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60">
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" ht="60">
+      <c r="A10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60">
+      <c r="A11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60">
+      <c r="A12" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" ht="36">
-      <c r="A4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60">
+      <c r="A13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="72">
+      <c r="A14" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="72">
+      <c r="A15" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60">
+      <c r="A16" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60">
+      <c r="A17" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="72">
+      <c r="A18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="72">
+      <c r="A19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" ht="36">
-      <c r="A5" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="48">
-      <c r="A6" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="48">
-      <c r="A7" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="48">
-      <c r="A8" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60">
-      <c r="A9" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" ht="60">
-      <c r="A10" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="60">
-      <c r="A11" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60">
-      <c r="A12" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="60">
-      <c r="A13" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="72">
-      <c r="A14" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="72">
-      <c r="A15" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="60">
-      <c r="A16" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="28" t="s">
+      <c r="F19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="60">
-      <c r="A17" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="72">
-      <c r="A18" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="72">
-      <c r="A19" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>58</v>
-      </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="28" t="s">
-        <v>58</v>
+      <c r="H19" s="25" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1953,9 +2132,9 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3"/>
@@ -2076,7 +2255,7 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="28"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -2114,7 +2293,7 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="28"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3230,17 +3409,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B3:B19"/>
     <mergeCell ref="C3:C19"/>
     <mergeCell ref="D3:D19"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3253,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3270,290 +3449,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="36"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="120">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>75</v>
+      <c r="B3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="132">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="28" t="s">
-        <v>76</v>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="120">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="28" t="s">
-        <v>73</v>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="30" t="s">
-        <v>71</v>
+      <c r="H5" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="108">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="28" t="s">
-        <v>77</v>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="30" t="s">
-        <v>71</v>
+      <c r="H6" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="72">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="28" t="s">
-        <v>80</v>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="120">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="28" t="s">
-        <v>81</v>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="30" t="s">
-        <v>71</v>
+      <c r="H8" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="120">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="28" t="s">
-        <v>83</v>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="30" t="s">
-        <v>71</v>
+      <c r="H9" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="120">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="28" t="s">
-        <v>84</v>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="30" t="s">
-        <v>71</v>
+      <c r="H10" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="108">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="28" t="s">
-        <v>85</v>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="120">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="28" t="s">
-        <v>87</v>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="30" t="s">
-        <v>71</v>
+      <c r="H12" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="120">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="28" t="s">
-        <v>92</v>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="30" t="s">
-        <v>91</v>
+      <c r="H14" s="27" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="120">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>97</v>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="46" t="s">
-        <v>96</v>
+      <c r="H15" s="28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="120">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>97</v>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="46" t="s">
-        <v>96</v>
+      <c r="H16" s="28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="120">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>99</v>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4892,7 +5072,10 @@
       <c r="H151" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C3:C17"/>
+    <mergeCell ref="D3:D17"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4902,7 +5085,7 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4913,7 +5096,7 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4929,64 +5112,1682 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:8" ht="36">
+      <c r="A3" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48">
+      <c r="A4" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="48">
+      <c r="A5" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="1" customWidth="1"/>
+    <col min="6" max="7" width="23.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="G1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:8" ht="24">
+      <c r="A3" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="H3" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24">
+      <c r="A4" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="25" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3"/>
@@ -6459,17 +8260,32 @@
       <c r="H151" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>